--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\Github1\Data-Analytics-Portfolio-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9A7384-DE51-423F-9554-039DD0DFD268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258FB12A-0B73-43B9-881F-1F86A2C5B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="60" windowWidth="14730" windowHeight="15420" tabRatio="774" activeTab="7" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
+    <workbookView xWindow="14310" yWindow="0" windowWidth="14430" windowHeight="15585" tabRatio="774" activeTab="8" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="11" sheetId="9" r:id="rId5"/>
     <sheet name="10" sheetId="8" r:id="rId6"/>
     <sheet name="9" sheetId="7" r:id="rId7"/>
-    <sheet name="8" sheetId="6" r:id="rId8"/>
-    <sheet name="6" sheetId="5" r:id="rId9"/>
-    <sheet name="3 &amp; 4" sheetId="4" r:id="rId10"/>
-    <sheet name="1 &amp; 2" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
+    <sheet name="8" sheetId="6" r:id="rId9"/>
+    <sheet name="6" sheetId="5" r:id="rId10"/>
+    <sheet name="3 &amp; 4" sheetId="4" r:id="rId11"/>
+    <sheet name="1 &amp; 2" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="825">
   <si>
     <t>Essential Excel Functions &amp; Formulas</t>
   </si>
@@ -2505,6 +2506,45 @@
   </si>
   <si>
     <t>Female Ratio</t>
+  </si>
+  <si>
+    <t>Employee Type Description</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Employee Type2</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Sheet 1</t>
+  </si>
+  <si>
+    <t>1st column should be Employee Type to perform a match, if not, the Vlookup will not work.</t>
+  </si>
+  <si>
+    <t>Limitation</t>
+  </si>
+  <si>
+    <t>When we do a match, anything prior to match criteria, we cannot apply vlookup</t>
+  </si>
+  <si>
+    <t>Max Salary</t>
+  </si>
+  <si>
+    <t>Number of Gender in different Departments</t>
   </si>
 </sst>
 </file>
@@ -2706,12 +2746,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2807,17 +2848,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2898,31 +2958,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}" name="staff" displayName="staff" ref="A1:M261" totalsRowShown="0">
-  <autoFilter ref="A1:M261" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Female"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}" name="staff" displayName="staff" ref="A1:N261" totalsRowShown="0">
+  <autoFilter ref="A1:N261" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M261">
     <sortCondition ref="A7:A267"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{621ED446-8957-40DD-AC6B-306E51CB363A}" name="Emp ID"/>
     <tableColumn id="2" xr3:uid="{06E81D82-C308-43C1-BA8E-E8A50BCBCED3}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{87F8C61E-0A2A-4D5E-B5CE-A164C9F6B330}" name="Last Name"/>
     <tableColumn id="4" xr3:uid="{86E12E19-DEF8-4F6D-B1BF-AAA3F1C5E5E1}" name="Gender"/>
     <tableColumn id="5" xr3:uid="{AB33D81B-F204-46F4-A10C-097A1E5D35BD}" name="Department"/>
-    <tableColumn id="6" xr3:uid="{94FE521D-0662-46DF-B0C7-697BF5EAB810}" name="Salary" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{94FE521D-0662-46DF-B0C7-697BF5EAB810}" name="Salary" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{69E0FEED-A266-4D74-99DF-2617CACDC85A}" name="Salary Bucket"/>
-    <tableColumn id="8" xr3:uid="{B06826F1-45D0-4979-945A-650E2166E609}" name="Start Date" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B06826F1-45D0-4979-945A-650E2166E609}" name="Start Date" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{1649F9AF-8482-4385-A880-9D79D666F874}" name="FTE"/>
     <tableColumn id="10" xr3:uid="{FD412FAB-D1D5-4C13-86B3-3C32F1D207BD}" name="Employee type"/>
     <tableColumn id="11" xr3:uid="{5A83ED87-4F55-4CA0-BCA6-B1CDA2F2F0A6}" name="Work location"/>
-    <tableColumn id="12" xr3:uid="{93BC06F4-5F38-4CF6-B8B9-BB3ECC954F94}" name="Tenure" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{93BC06F4-5F38-4CF6-B8B9-BB3ECC954F94}" name="Tenure" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{8265356C-F75F-4079-A6F0-01CC6A595EB2}" name="Work Type"/>
+    <tableColumn id="14" xr3:uid="{77F0EC6C-1668-4356-A297-A671DC62E5C6}" name="Employee Type2" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6AD62163-A22F-4ECD-BBA0-B66708E87F7A}" name="ET" displayName="ET" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{6AD62163-A22F-4ECD-BBA0-B66708E87F7A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{61DC3008-E5D2-48D5-B7F1-7B377C2E377D}" name="Employee Type"/>
+    <tableColumn id="2" xr3:uid="{9A53D9B9-7F79-4498-9DE6-71B73FD19900}" name="Employee Type Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3247,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920E98F7-A8B9-4AB9-A435-6FE020DD9D8F}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,11 +4881,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4836C1CA-B3F8-4E0E-8169-5A1F68AD8466}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B4" s="37">
+        <f>MIN(staff[Salary])</f>
+        <v>28160.79</v>
+      </c>
+      <c r="C4" s="37">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],C3)</f>
+        <v>28160.79</v>
+      </c>
+      <c r="D4" s="37">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],D3)</f>
+        <v>28305.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5" s="37">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+      <c r="C5" s="37">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],C3)</f>
+        <v>120000</v>
+      </c>
+      <c r="D5" s="37">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],D3)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="B6" s="37">
+        <f>LARGE(staff[Salary],1)</f>
+        <v>120000</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="37">
+        <f>LARGE(staff[Salary],2)</f>
+        <v>120000</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <f>LARGE(staff[Salary],3)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
+        <f>LARGE(staff[Salary],4)</f>
+        <v>118976.16</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <f>LARGE(staff[Salary],5)</f>
+        <v>118442.54</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
+        <f>LARGE(staff[Salary],6)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
+        <f>LARGE(staff[Salary],7)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" s="28" cm="1">
+        <f t="array" ref="B15:B19">_xlfn.TAKE(_xlfn._xlws.SORT(staff[Salary],,1),5)</f>
+        <v>28160.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="28">
+        <v>28305.08</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="28">
+        <v>28329.77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
+        <v>28481.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="28">
+        <v>28481.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDB1529-B577-47AD-8EEE-542D4778C9AE}">
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,7 +5100,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="str" cm="1">
-        <f t="array" ref="A3:M3">staff[#Headers]</f>
+        <f t="array" ref="A3:N3">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
       <c r="B3" s="30" t="str">
@@ -4911,7 +5139,9 @@
       <c r="M3" s="30" t="str">
         <v>Work Type</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="30" t="str">
+        <v>Employee Type2</v>
+      </c>
       <c r="P3" t="str" cm="1">
         <f t="array" ref="P3:U127">_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(staff[],staff[Gender]="female"),1,2,3,4,5,6)</f>
         <v>PR00007</v>
@@ -4934,7 +5164,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4:M50">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;D2)</f>
+        <f t="array" ref="A4:N50">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;D2)</f>
         <v>PR00147</v>
       </c>
       <c r="B4" t="str">
@@ -4972,6 +5202,9 @@
       </c>
       <c r="M4" t="str">
         <v>Full time</v>
+      </c>
+      <c r="N4" t="str">
+        <v>PT</v>
       </c>
       <c r="P4" t="str">
         <v>PR00095</v>
@@ -5032,6 +5265,9 @@
       <c r="M5" t="str">
         <v>Full time</v>
       </c>
+      <c r="N5" t="str">
+        <v>PT</v>
+      </c>
       <c r="P5" t="str">
         <v>PR00113</v>
       </c>
@@ -5091,6 +5327,9 @@
       <c r="M6" t="str">
         <v>Part time</v>
       </c>
+      <c r="N6" t="str">
+        <v>PT</v>
+      </c>
       <c r="P6" t="str">
         <v>PR00113</v>
       </c>
@@ -5150,6 +5389,9 @@
       <c r="M7" t="str">
         <v>Full time</v>
       </c>
+      <c r="N7" t="str">
+        <v>PT</v>
+      </c>
       <c r="P7" t="str">
         <v>PR00246</v>
       </c>
@@ -5209,6 +5451,9 @@
       <c r="M8" t="str">
         <v>Full time</v>
       </c>
+      <c r="N8" t="str">
+        <v>PT</v>
+      </c>
       <c r="P8" t="str">
         <v>PR00419</v>
       </c>
@@ -5268,6 +5513,9 @@
       <c r="M9" t="str">
         <v>Full time</v>
       </c>
+      <c r="N9" t="str">
+        <v>PT</v>
+      </c>
       <c r="P9" t="str">
         <v>PR00576</v>
       </c>
@@ -5327,6 +5575,9 @@
       <c r="M10" t="str">
         <v>Full time</v>
       </c>
+      <c r="N10" t="str">
+        <v>PT</v>
+      </c>
       <c r="P10" t="str">
         <v>PR00746</v>
       </c>
@@ -5386,6 +5637,9 @@
       <c r="M11" t="str">
         <v>Full time</v>
       </c>
+      <c r="N11" t="str">
+        <v>PT</v>
+      </c>
       <c r="P11" t="str">
         <v>PR00916</v>
       </c>
@@ -5445,6 +5699,9 @@
       <c r="M12" t="str">
         <v>Full time</v>
       </c>
+      <c r="N12" t="str">
+        <v>PT</v>
+      </c>
       <c r="P12" t="str">
         <v>PR01269</v>
       </c>
@@ -5504,6 +5761,9 @@
       <c r="M13" t="str">
         <v>Full time</v>
       </c>
+      <c r="N13" t="str">
+        <v>PT</v>
+      </c>
       <c r="P13" t="str">
         <v>PR01383</v>
       </c>
@@ -5563,6 +5823,9 @@
       <c r="M14" t="str">
         <v>Full time</v>
       </c>
+      <c r="N14" t="str">
+        <v>PT</v>
+      </c>
       <c r="P14" t="str">
         <v>PR01662</v>
       </c>
@@ -5622,6 +5885,9 @@
       <c r="M15" t="str">
         <v>Full time</v>
       </c>
+      <c r="N15" t="str">
+        <v>PT</v>
+      </c>
       <c r="P15" t="str">
         <v>PR02016</v>
       </c>
@@ -5681,6 +5947,9 @@
       <c r="M16" t="str">
         <v>Full time</v>
       </c>
+      <c r="N16" t="str">
+        <v>PT</v>
+      </c>
       <c r="P16" t="str">
         <v>PR02113</v>
       </c>
@@ -5740,6 +6009,9 @@
       <c r="M17" t="str">
         <v>Full time</v>
       </c>
+      <c r="N17" t="str">
+        <v>PT</v>
+      </c>
       <c r="P17" t="str">
         <v>PR02208</v>
       </c>
@@ -5799,6 +6071,9 @@
       <c r="M18" t="str">
         <v>Full time</v>
       </c>
+      <c r="N18" t="str">
+        <v>PT</v>
+      </c>
       <c r="P18" t="str">
         <v>PR02275</v>
       </c>
@@ -5858,6 +6133,9 @@
       <c r="M19" t="str">
         <v>Full time</v>
       </c>
+      <c r="N19" t="str">
+        <v>PT</v>
+      </c>
       <c r="P19" t="str">
         <v>PR02321</v>
       </c>
@@ -5917,6 +6195,9 @@
       <c r="M20" t="str">
         <v>Full time</v>
       </c>
+      <c r="N20" t="str">
+        <v>PT</v>
+      </c>
       <c r="P20" t="str">
         <v>PR02436</v>
       </c>
@@ -5976,6 +6257,9 @@
       <c r="M21" t="str">
         <v>Full time</v>
       </c>
+      <c r="N21" t="str">
+        <v>PT</v>
+      </c>
       <c r="P21" t="str">
         <v>PR02603</v>
       </c>
@@ -6035,6 +6319,9 @@
       <c r="M22" t="str">
         <v>Full time</v>
       </c>
+      <c r="N22" t="str">
+        <v>PT</v>
+      </c>
       <c r="P22" t="str">
         <v>PR02957</v>
       </c>
@@ -6094,6 +6381,9 @@
       <c r="M23" t="str">
         <v>Part time</v>
       </c>
+      <c r="N23" t="str">
+        <v>PT</v>
+      </c>
       <c r="P23" t="str">
         <v>PR03158</v>
       </c>
@@ -6153,6 +6443,9 @@
       <c r="M24" t="str">
         <v>Full time</v>
       </c>
+      <c r="N24" t="str">
+        <v>PT</v>
+      </c>
       <c r="P24" t="str">
         <v>PR03271</v>
       </c>
@@ -6212,6 +6505,9 @@
       <c r="M25" t="str">
         <v>Full time</v>
       </c>
+      <c r="N25" t="str">
+        <v>PT</v>
+      </c>
       <c r="P25" t="str">
         <v>PR03844</v>
       </c>
@@ -6271,6 +6567,9 @@
       <c r="M26" t="str">
         <v>Full time</v>
       </c>
+      <c r="N26" t="str">
+        <v>PT</v>
+      </c>
       <c r="P26" t="str">
         <v>PR04366</v>
       </c>
@@ -6330,6 +6629,9 @@
       <c r="M27" t="str">
         <v>Part time</v>
       </c>
+      <c r="N27" t="str">
+        <v>PT</v>
+      </c>
       <c r="P27" t="str">
         <v>PR04380</v>
       </c>
@@ -6389,6 +6691,9 @@
       <c r="M28" t="str">
         <v>Full time</v>
       </c>
+      <c r="N28" t="str">
+        <v>PT</v>
+      </c>
       <c r="P28" t="str">
         <v>PR04446</v>
       </c>
@@ -6448,6 +6753,9 @@
       <c r="M29" t="str">
         <v>Part time</v>
       </c>
+      <c r="N29" t="str">
+        <v>PT</v>
+      </c>
       <c r="P29" t="str">
         <v>PR04473</v>
       </c>
@@ -6507,6 +6815,9 @@
       <c r="M30" t="str">
         <v>Full time</v>
       </c>
+      <c r="N30" t="str">
+        <v>PT</v>
+      </c>
       <c r="P30" t="str">
         <v>PR04686</v>
       </c>
@@ -6566,6 +6877,9 @@
       <c r="M31" t="str">
         <v>Full time</v>
       </c>
+      <c r="N31" t="str">
+        <v>FT</v>
+      </c>
       <c r="P31" t="str">
         <v>PR04851</v>
       </c>
@@ -6625,6 +6939,9 @@
       <c r="M32" t="str">
         <v>Full time</v>
       </c>
+      <c r="N32" t="str">
+        <v>FT</v>
+      </c>
       <c r="P32" t="str">
         <v>SQ00105</v>
       </c>
@@ -6684,6 +7001,9 @@
       <c r="M33" t="str">
         <v>Part time</v>
       </c>
+      <c r="N33" t="str">
+        <v>FT</v>
+      </c>
       <c r="P33" t="str">
         <v>SQ00187</v>
       </c>
@@ -6743,6 +7063,9 @@
       <c r="M34" t="str">
         <v>Full time</v>
       </c>
+      <c r="N34" t="str">
+        <v>FT</v>
+      </c>
       <c r="P34" t="str">
         <v>SQ00286</v>
       </c>
@@ -6802,6 +7125,9 @@
       <c r="M35" t="str">
         <v>Full time</v>
       </c>
+      <c r="N35" t="str">
+        <v>FT</v>
+      </c>
       <c r="P35" t="str">
         <v>SQ00450</v>
       </c>
@@ -6861,6 +7187,9 @@
       <c r="M36" t="str">
         <v>Full time</v>
       </c>
+      <c r="N36" t="str">
+        <v>FT</v>
+      </c>
       <c r="P36" t="str">
         <v>SQ00498</v>
       </c>
@@ -6920,6 +7249,9 @@
       <c r="M37" t="str">
         <v>Full time</v>
       </c>
+      <c r="N37" t="str">
+        <v>FT</v>
+      </c>
       <c r="P37" t="str">
         <v>SQ00841</v>
       </c>
@@ -6979,6 +7311,9 @@
       <c r="M38" t="str">
         <v>Full time</v>
       </c>
+      <c r="N38" t="str">
+        <v>FT</v>
+      </c>
       <c r="P38" t="str">
         <v>SQ00914</v>
       </c>
@@ -7038,6 +7373,9 @@
       <c r="M39" t="str">
         <v>Full time</v>
       </c>
+      <c r="N39" t="str">
+        <v>TE</v>
+      </c>
       <c r="P39" t="str">
         <v>SQ00914</v>
       </c>
@@ -7097,6 +7435,9 @@
       <c r="M40" t="str">
         <v>Full time</v>
       </c>
+      <c r="N40" t="str">
+        <v>TE</v>
+      </c>
       <c r="P40" t="str">
         <v>SQ00960</v>
       </c>
@@ -7156,6 +7497,9 @@
       <c r="M41" t="str">
         <v>Part time</v>
       </c>
+      <c r="N41" t="str">
+        <v>TE</v>
+      </c>
       <c r="P41" t="str">
         <v>SQ01283</v>
       </c>
@@ -7215,6 +7559,9 @@
       <c r="M42" t="str">
         <v>Part time</v>
       </c>
+      <c r="N42" t="str">
+        <v>TE</v>
+      </c>
       <c r="P42" t="str">
         <v>SQ01402</v>
       </c>
@@ -7274,6 +7621,9 @@
       <c r="M43" t="str">
         <v>Part time</v>
       </c>
+      <c r="N43" t="str">
+        <v>TE</v>
+      </c>
       <c r="P43" t="str">
         <v>SQ01730</v>
       </c>
@@ -7333,6 +7683,9 @@
       <c r="M44" t="str">
         <v>Part time</v>
       </c>
+      <c r="N44" t="str">
+        <v>TE</v>
+      </c>
       <c r="P44" t="str">
         <v>SQ01854</v>
       </c>
@@ -7392,6 +7745,9 @@
       <c r="M45" t="str">
         <v>Part time</v>
       </c>
+      <c r="N45" t="str">
+        <v>TE</v>
+      </c>
       <c r="P45" t="str">
         <v>SQ02174</v>
       </c>
@@ -7451,6 +7807,9 @@
       <c r="M46" t="str">
         <v>Part time</v>
       </c>
+      <c r="N46" t="str">
+        <v>TE</v>
+      </c>
       <c r="P46" t="str">
         <v>SQ02223</v>
       </c>
@@ -7510,6 +7869,9 @@
       <c r="M47" t="str">
         <v>Full time</v>
       </c>
+      <c r="N47" t="str">
+        <v>TE</v>
+      </c>
       <c r="P47" t="str">
         <v>SQ02465</v>
       </c>
@@ -7569,6 +7931,9 @@
       <c r="M48" t="str">
         <v>Full time</v>
       </c>
+      <c r="N48" t="str">
+        <v>TE</v>
+      </c>
       <c r="P48" t="str">
         <v>SQ02565</v>
       </c>
@@ -7628,6 +7993,9 @@
       <c r="M49" t="str">
         <v>Full time</v>
       </c>
+      <c r="N49" t="str">
+        <v>TE</v>
+      </c>
       <c r="P49" t="str">
         <v>SQ02582</v>
       </c>
@@ -7686,6 +8054,9 @@
       </c>
       <c r="M50" t="str">
         <v>Full time</v>
+      </c>
+      <c r="N50" t="str">
+        <v>TE</v>
       </c>
       <c r="P50" t="str">
         <v>SQ02624</v>
@@ -9252,7 +9623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315D8E3-BDFF-4D29-8E4E-4528C7B53938}">
   <dimension ref="A3:F15"/>
   <sheetViews>
@@ -9628,10 +9999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B479A4F1-4E45-484A-ABC8-9580270FCB97}">
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G265" sqref="G265"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9649,9 +10020,10 @@
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9691,8 +10063,11 @@
       <c r="M1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -9732,8 +10107,18 @@
       <c r="M2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+      <c r="P2" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -9773,8 +10158,18 @@
       <c r="M3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+      <c r="P3" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -9814,8 +10209,12 @@
       <c r="M4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -9855,8 +10254,12 @@
       <c r="M5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -9896,8 +10299,12 @@
       <c r="M6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -9937,8 +10344,12 @@
       <c r="M7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -9978,8 +10389,12 @@
       <c r="M8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10019,8 +10434,12 @@
       <c r="M9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -10060,8 +10479,12 @@
       <c r="M10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -10101,8 +10524,12 @@
       <c r="M11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -10142,8 +10569,12 @@
       <c r="M12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -10183,8 +10614,12 @@
       <c r="M13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -10224,8 +10659,12 @@
       <c r="M14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -10265,8 +10704,12 @@
       <c r="M15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -10306,8 +10749,12 @@
       <c r="M16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -10347,8 +10794,12 @@
       <c r="M17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -10388,8 +10839,12 @@
       <c r="M18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -10429,8 +10884,12 @@
       <c r="M19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -10470,8 +10929,12 @@
       <c r="M20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10511,8 +10974,12 @@
       <c r="M21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -10552,8 +11019,12 @@
       <c r="M22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -10593,8 +11064,12 @@
       <c r="M23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -10634,8 +11109,12 @@
       <c r="M24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -10675,8 +11154,12 @@
       <c r="M25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -10716,8 +11199,12 @@
       <c r="M26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -10757,8 +11244,12 @@
       <c r="M27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -10798,8 +11289,12 @@
       <c r="M28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -10839,8 +11334,12 @@
       <c r="M29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -10880,8 +11379,12 @@
       <c r="M30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -10921,8 +11424,12 @@
       <c r="M31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -10962,8 +11469,12 @@
       <c r="M32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -11003,8 +11514,12 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -11044,8 +11559,12 @@
       <c r="M34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -11085,8 +11604,12 @@
       <c r="M35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -11126,8 +11649,12 @@
       <c r="M36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -11167,8 +11694,12 @@
       <c r="M37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>166</v>
       </c>
@@ -11208,8 +11739,12 @@
       <c r="M38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -11249,8 +11784,12 @@
       <c r="M39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -11290,8 +11829,12 @@
       <c r="M40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -11331,8 +11874,12 @@
       <c r="M41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -11372,8 +11919,12 @@
       <c r="M42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N42" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -11413,8 +11964,12 @@
       <c r="M43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -11454,8 +12009,12 @@
       <c r="M44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -11495,8 +12054,12 @@
       <c r="M45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N45" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -11536,8 +12099,12 @@
       <c r="M46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -11577,8 +12144,12 @@
       <c r="M47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -11618,8 +12189,12 @@
       <c r="M48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N48" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -11659,8 +12234,12 @@
       <c r="M49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -11700,8 +12279,12 @@
       <c r="M50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -11741,8 +12324,12 @@
       <c r="M51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -11782,8 +12369,12 @@
       <c r="M52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -11823,8 +12414,12 @@
       <c r="M53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N53" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -11864,8 +12459,12 @@
       <c r="M54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>215</v>
       </c>
@@ -11905,8 +12504,12 @@
       <c r="M55" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -11946,8 +12549,12 @@
       <c r="M56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N56" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -11987,8 +12594,12 @@
       <c r="M57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N57" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -12028,8 +12639,12 @@
       <c r="M58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>227</v>
       </c>
@@ -12069,8 +12684,12 @@
       <c r="M59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N59" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>230</v>
       </c>
@@ -12110,8 +12729,12 @@
       <c r="M60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -12151,8 +12774,12 @@
       <c r="M61" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -12192,8 +12819,12 @@
       <c r="M62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N62" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -12233,8 +12864,12 @@
       <c r="M63" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>242</v>
       </c>
@@ -12274,8 +12909,12 @@
       <c r="M64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>243</v>
       </c>
@@ -12315,8 +12954,12 @@
       <c r="M65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N65" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>246</v>
       </c>
@@ -12356,8 +12999,12 @@
       <c r="M66" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N66" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>249</v>
       </c>
@@ -12397,8 +13044,12 @@
       <c r="M67" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>252</v>
       </c>
@@ -12438,8 +13089,12 @@
       <c r="M68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>255</v>
       </c>
@@ -12479,8 +13134,12 @@
       <c r="M69" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -12520,8 +13179,12 @@
       <c r="M70" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -12561,8 +13224,12 @@
       <c r="M71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N71" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>263</v>
       </c>
@@ -12602,8 +13269,12 @@
       <c r="M72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N72" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>266</v>
       </c>
@@ -12643,8 +13314,12 @@
       <c r="M73" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>269</v>
       </c>
@@ -12684,8 +13359,12 @@
       <c r="M74" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N74" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>272</v>
       </c>
@@ -12725,8 +13404,12 @@
       <c r="M75" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -12766,8 +13449,12 @@
       <c r="M76" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N76" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>278</v>
       </c>
@@ -12807,8 +13494,12 @@
       <c r="M77" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N77" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>281</v>
       </c>
@@ -12848,8 +13539,12 @@
       <c r="M78" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N78" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -12889,8 +13584,12 @@
       <c r="M79" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N79" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -12930,8 +13629,12 @@
       <c r="M80" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>290</v>
       </c>
@@ -12971,8 +13674,12 @@
       <c r="M81" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N81" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>293</v>
       </c>
@@ -13012,8 +13719,12 @@
       <c r="M82" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>296</v>
       </c>
@@ -13053,8 +13764,12 @@
       <c r="M83" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N83" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -13094,8 +13809,12 @@
       <c r="M84" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N84" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>299</v>
       </c>
@@ -13135,8 +13854,12 @@
       <c r="M85" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N85" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>304</v>
       </c>
@@ -13176,8 +13899,12 @@
       <c r="M86" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N86" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>304</v>
       </c>
@@ -13217,8 +13944,12 @@
       <c r="M87" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>307</v>
       </c>
@@ -13258,8 +13989,12 @@
       <c r="M88" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>310</v>
       </c>
@@ -13299,8 +14034,12 @@
       <c r="M89" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N89" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>313</v>
       </c>
@@ -13340,8 +14079,12 @@
       <c r="M90" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N90" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>316</v>
       </c>
@@ -13381,8 +14124,12 @@
       <c r="M91" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N91" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>319</v>
       </c>
@@ -13422,8 +14169,12 @@
       <c r="M92" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -13463,8 +14214,12 @@
       <c r="M93" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N93" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>325</v>
       </c>
@@ -13504,8 +14259,12 @@
       <c r="M94" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N94" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>328</v>
       </c>
@@ -13545,8 +14304,12 @@
       <c r="M95" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N95" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>328</v>
       </c>
@@ -13586,8 +14349,12 @@
       <c r="M96" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>331</v>
       </c>
@@ -13627,8 +14394,12 @@
       <c r="M97" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>334</v>
       </c>
@@ -13668,8 +14439,12 @@
       <c r="M98" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>337</v>
       </c>
@@ -13709,8 +14484,12 @@
       <c r="M99" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N99" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>340</v>
       </c>
@@ -13750,8 +14529,12 @@
       <c r="M100" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>343</v>
       </c>
@@ -13791,8 +14574,12 @@
       <c r="M101" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>346</v>
       </c>
@@ -13832,8 +14619,12 @@
       <c r="M102" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>349</v>
       </c>
@@ -13873,8 +14664,12 @@
       <c r="M103" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>349</v>
       </c>
@@ -13914,8 +14709,12 @@
       <c r="M104" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N104" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>352</v>
       </c>
@@ -13955,8 +14754,12 @@
       <c r="M105" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N105" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>355</v>
       </c>
@@ -13996,8 +14799,12 @@
       <c r="M106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>358</v>
       </c>
@@ -14037,8 +14844,12 @@
       <c r="M107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>361</v>
       </c>
@@ -14078,8 +14889,12 @@
       <c r="M108" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>361</v>
       </c>
@@ -14119,8 +14934,12 @@
       <c r="M109" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -14160,8 +14979,12 @@
       <c r="M110" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N110" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>367</v>
       </c>
@@ -14201,8 +15024,12 @@
       <c r="M111" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>370</v>
       </c>
@@ -14242,8 +15069,12 @@
       <c r="M112" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>373</v>
       </c>
@@ -14283,8 +15114,12 @@
       <c r="M113" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>376</v>
       </c>
@@ -14324,8 +15159,12 @@
       <c r="M114" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>379</v>
       </c>
@@ -14365,8 +15204,12 @@
       <c r="M115" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N115" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>382</v>
       </c>
@@ -14406,8 +15249,12 @@
       <c r="M116" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>385</v>
       </c>
@@ -14447,8 +15294,12 @@
       <c r="M117" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N117" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>388</v>
       </c>
@@ -14488,8 +15339,12 @@
       <c r="M118" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N118" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>391</v>
       </c>
@@ -14529,8 +15384,12 @@
       <c r="M119" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N119" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>394</v>
       </c>
@@ -14570,8 +15429,12 @@
       <c r="M120" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>397</v>
       </c>
@@ -14611,8 +15474,12 @@
       <c r="M121" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>400</v>
       </c>
@@ -14652,8 +15519,12 @@
       <c r="M122" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N122" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>403</v>
       </c>
@@ -14693,8 +15564,12 @@
       <c r="M123" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>406</v>
       </c>
@@ -14734,8 +15609,12 @@
       <c r="M124" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>409</v>
       </c>
@@ -14775,8 +15654,12 @@
       <c r="M125" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -14816,8 +15699,12 @@
       <c r="M126" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>415</v>
       </c>
@@ -14857,8 +15744,12 @@
       <c r="M127" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -14898,8 +15789,12 @@
       <c r="M128" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>420</v>
       </c>
@@ -14939,8 +15834,12 @@
       <c r="M129" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -14980,8 +15879,12 @@
       <c r="M130" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>426</v>
       </c>
@@ -15021,8 +15924,12 @@
       <c r="M131" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N131" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -15062,8 +15969,12 @@
       <c r="M132" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -15103,8 +16014,12 @@
       <c r="M133" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>435</v>
       </c>
@@ -15144,8 +16059,12 @@
       <c r="M134" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>438</v>
       </c>
@@ -15185,8 +16104,12 @@
       <c r="M135" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N135" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>441</v>
       </c>
@@ -15226,8 +16149,12 @@
       <c r="M136" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N136" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>441</v>
       </c>
@@ -15267,8 +16194,12 @@
       <c r="M137" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>444</v>
       </c>
@@ -15308,8 +16239,12 @@
       <c r="M138" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N138" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>447</v>
       </c>
@@ -15349,8 +16284,12 @@
       <c r="M139" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N139" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -15390,8 +16329,12 @@
       <c r="M140" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N140" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>453</v>
       </c>
@@ -15431,8 +16374,12 @@
       <c r="M141" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N141" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>453</v>
       </c>
@@ -15472,8 +16419,12 @@
       <c r="M142" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>458</v>
       </c>
@@ -15513,8 +16464,12 @@
       <c r="M143" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N143" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>461</v>
       </c>
@@ -15554,8 +16509,12 @@
       <c r="M144" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N144" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>464</v>
       </c>
@@ -15595,8 +16554,12 @@
       <c r="M145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N145" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>467</v>
       </c>
@@ -15636,8 +16599,12 @@
       <c r="M146" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>470</v>
       </c>
@@ -15677,8 +16644,12 @@
       <c r="M147" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>470</v>
       </c>
@@ -15718,8 +16689,12 @@
       <c r="M148" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N148" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>473</v>
       </c>
@@ -15759,8 +16734,12 @@
       <c r="M149" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N149" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>476</v>
       </c>
@@ -15800,8 +16779,12 @@
       <c r="M150" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N150" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>479</v>
       </c>
@@ -15841,8 +16824,12 @@
       <c r="M151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N151" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>479</v>
       </c>
@@ -15882,8 +16869,12 @@
       <c r="M152" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N152" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>482</v>
       </c>
@@ -15923,8 +16914,12 @@
       <c r="M153" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N153" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>485</v>
       </c>
@@ -15964,8 +16959,12 @@
       <c r="M154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N154" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>486</v>
       </c>
@@ -16005,8 +17004,12 @@
       <c r="M155" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N155" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>489</v>
       </c>
@@ -16046,8 +17049,12 @@
       <c r="M156" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N156" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>492</v>
       </c>
@@ -16087,8 +17094,12 @@
       <c r="M157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N157" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>495</v>
       </c>
@@ -16128,8 +17139,12 @@
       <c r="M158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>498</v>
       </c>
@@ -16169,8 +17184,12 @@
       <c r="M159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>498</v>
       </c>
@@ -16210,8 +17229,12 @@
       <c r="M160" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N160" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>501</v>
       </c>
@@ -16251,8 +17274,12 @@
       <c r="M161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N161" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>501</v>
       </c>
@@ -16292,8 +17319,12 @@
       <c r="M162" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>504</v>
       </c>
@@ -16333,8 +17364,12 @@
       <c r="M163" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>507</v>
       </c>
@@ -16374,8 +17409,12 @@
       <c r="M164" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>510</v>
       </c>
@@ -16415,8 +17454,12 @@
       <c r="M165" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -16456,8 +17499,12 @@
       <c r="M166" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N166" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>516</v>
       </c>
@@ -16497,8 +17544,12 @@
       <c r="M167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>519</v>
       </c>
@@ -16538,8 +17589,12 @@
       <c r="M168" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>519</v>
       </c>
@@ -16579,8 +17634,12 @@
       <c r="M169" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N169" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>523</v>
       </c>
@@ -16620,8 +17679,12 @@
       <c r="M170" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N170" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>527</v>
       </c>
@@ -16661,8 +17724,12 @@
       <c r="M171" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>530</v>
       </c>
@@ -16702,8 +17769,12 @@
       <c r="M172" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>530</v>
       </c>
@@ -16743,8 +17814,12 @@
       <c r="M173" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N173" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>533</v>
       </c>
@@ -16784,8 +17859,12 @@
       <c r="M174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N174" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>536</v>
       </c>
@@ -16825,8 +17904,12 @@
       <c r="M175" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N175" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>537</v>
       </c>
@@ -16866,8 +17949,12 @@
       <c r="M176" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N176" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>540</v>
       </c>
@@ -16907,8 +17994,12 @@
       <c r="M177" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>543</v>
       </c>
@@ -16948,8 +18039,12 @@
       <c r="M178" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>543</v>
       </c>
@@ -16989,8 +18084,12 @@
       <c r="M179" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N179" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>546</v>
       </c>
@@ -17030,8 +18129,12 @@
       <c r="M180" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N180" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>546</v>
       </c>
@@ -17071,8 +18174,12 @@
       <c r="M181" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>551</v>
       </c>
@@ -17112,8 +18219,12 @@
       <c r="M182" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N182" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>554</v>
       </c>
@@ -17153,8 +18264,12 @@
       <c r="M183" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>557</v>
       </c>
@@ -17194,8 +18309,12 @@
       <c r="M184" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>560</v>
       </c>
@@ -17235,8 +18354,12 @@
       <c r="M185" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>563</v>
       </c>
@@ -17276,8 +18399,12 @@
       <c r="M186" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>566</v>
       </c>
@@ -17317,8 +18444,12 @@
       <c r="M187" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N187" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>569</v>
       </c>
@@ -17358,8 +18489,12 @@
       <c r="M188" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N188" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>569</v>
       </c>
@@ -17399,8 +18534,12 @@
       <c r="M189" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N189" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>571</v>
       </c>
@@ -17440,8 +18579,12 @@
       <c r="M190" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>574</v>
       </c>
@@ -17481,8 +18624,12 @@
       <c r="M191" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>577</v>
       </c>
@@ -17522,8 +18669,12 @@
       <c r="M192" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N192" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>580</v>
       </c>
@@ -17563,8 +18714,12 @@
       <c r="M193" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>583</v>
       </c>
@@ -17604,8 +18759,12 @@
       <c r="M194" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N194" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>586</v>
       </c>
@@ -17645,8 +18804,12 @@
       <c r="M195" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N195" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>589</v>
       </c>
@@ -17686,8 +18849,12 @@
       <c r="M196" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N196" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>591</v>
       </c>
@@ -17727,8 +18894,12 @@
       <c r="M197" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>594</v>
       </c>
@@ -17768,8 +18939,12 @@
       <c r="M198" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>597</v>
       </c>
@@ -17809,8 +18984,12 @@
       <c r="M199" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>597</v>
       </c>
@@ -17850,8 +19029,12 @@
       <c r="M200" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N200" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>600</v>
       </c>
@@ -17891,8 +19074,12 @@
       <c r="M201" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>603</v>
       </c>
@@ -17932,8 +19119,12 @@
       <c r="M202" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N202" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>606</v>
       </c>
@@ -17973,8 +19164,12 @@
       <c r="M203" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N203" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>609</v>
       </c>
@@ -18014,8 +19209,12 @@
       <c r="M204" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N204" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>612</v>
       </c>
@@ -18055,8 +19254,12 @@
       <c r="M205" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>615</v>
       </c>
@@ -18096,8 +19299,12 @@
       <c r="M206" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>618</v>
       </c>
@@ -18137,8 +19344,12 @@
       <c r="M207" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>621</v>
       </c>
@@ -18178,8 +19389,12 @@
       <c r="M208" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>624</v>
       </c>
@@ -18219,8 +19434,12 @@
       <c r="M209" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>624</v>
       </c>
@@ -18260,8 +19479,12 @@
       <c r="M210" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>629</v>
       </c>
@@ -18301,8 +19524,12 @@
       <c r="M211" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N211" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>632</v>
       </c>
@@ -18342,8 +19569,12 @@
       <c r="M212" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>635</v>
       </c>
@@ -18383,8 +19614,12 @@
       <c r="M213" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N213" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>638</v>
       </c>
@@ -18424,8 +19659,12 @@
       <c r="M214" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>641</v>
       </c>
@@ -18465,8 +19704,12 @@
       <c r="M215" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N215" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>644</v>
       </c>
@@ -18506,8 +19749,12 @@
       <c r="M216" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N216" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -18547,8 +19794,12 @@
       <c r="M217" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N217" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>647</v>
       </c>
@@ -18588,8 +19839,12 @@
       <c r="M218" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>650</v>
       </c>
@@ -18629,8 +19884,12 @@
       <c r="M219" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>FT</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>653</v>
       </c>
@@ -18670,8 +19929,12 @@
       <c r="M220" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N220" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>657</v>
       </c>
@@ -18711,8 +19974,12 @@
       <c r="M221" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N221" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>657</v>
       </c>
@@ -18752,8 +20019,12 @@
       <c r="M222" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>660</v>
       </c>
@@ -18793,8 +20064,12 @@
       <c r="M223" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>663</v>
       </c>
@@ -18834,8 +20109,12 @@
       <c r="M224" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>663</v>
       </c>
@@ -18875,8 +20154,12 @@
       <c r="M225" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N225" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -18916,8 +20199,12 @@
       <c r="M226" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N226" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>669</v>
       </c>
@@ -18957,8 +20244,12 @@
       <c r="M227" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>672</v>
       </c>
@@ -18998,8 +20289,12 @@
       <c r="M228" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N228" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>675</v>
       </c>
@@ -19039,8 +20334,12 @@
       <c r="M229" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N229" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>678</v>
       </c>
@@ -19080,8 +20379,12 @@
       <c r="M230" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N230" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>681</v>
       </c>
@@ -19121,8 +20424,12 @@
       <c r="M231" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N231" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>684</v>
       </c>
@@ -19162,8 +20469,12 @@
       <c r="M232" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N232" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>687</v>
       </c>
@@ -19203,8 +20514,12 @@
       <c r="M233" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N233" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>690</v>
       </c>
@@ -19244,8 +20559,12 @@
       <c r="M234" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N234" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>690</v>
       </c>
@@ -19285,8 +20604,12 @@
       <c r="M235" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N235" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>693</v>
       </c>
@@ -19326,8 +20649,12 @@
       <c r="M236" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N236" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>696</v>
       </c>
@@ -19367,8 +20694,12 @@
       <c r="M237" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N237" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>696</v>
       </c>
@@ -19408,8 +20739,12 @@
       <c r="M238" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N238" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>699</v>
       </c>
@@ -19449,8 +20784,12 @@
       <c r="M239" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>702</v>
       </c>
@@ -19490,8 +20829,12 @@
       <c r="M240" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N240" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>705</v>
       </c>
@@ -19531,8 +20874,12 @@
       <c r="M241" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N241" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>708</v>
       </c>
@@ -19572,8 +20919,12 @@
       <c r="M242" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N242" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>711</v>
       </c>
@@ -19613,8 +20964,12 @@
       <c r="M243" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>714</v>
       </c>
@@ -19654,8 +21009,12 @@
       <c r="M244" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N244" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>717</v>
       </c>
@@ -19695,8 +21054,12 @@
       <c r="M245" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N245" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>720</v>
       </c>
@@ -19736,8 +21099,12 @@
       <c r="M246" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N246" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>720</v>
       </c>
@@ -19777,8 +21144,12 @@
       <c r="M247" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>723</v>
       </c>
@@ -19818,8 +21189,12 @@
       <c r="M248" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>723</v>
       </c>
@@ -19859,8 +21234,12 @@
       <c r="M249" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N249" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>728</v>
       </c>
@@ -19900,8 +21279,12 @@
       <c r="M250" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N250" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>731</v>
       </c>
@@ -19941,8 +21324,12 @@
       <c r="M251" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N251" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>734</v>
       </c>
@@ -19982,8 +21369,12 @@
       <c r="M252" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N252" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>734</v>
       </c>
@@ -20023,8 +21414,12 @@
       <c r="M253" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N253" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>739</v>
       </c>
@@ -20064,8 +21459,12 @@
       <c r="M254" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>742</v>
       </c>
@@ -20105,8 +21504,12 @@
       <c r="M255" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>745</v>
       </c>
@@ -20146,8 +21549,12 @@
       <c r="M256" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>748</v>
       </c>
@@ -20187,8 +21594,12 @@
       <c r="M257" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N257" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>751</v>
       </c>
@@ -20228,8 +21639,12 @@
       <c r="M258" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>754</v>
       </c>
@@ -20269,8 +21684,12 @@
       <c r="M259" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>757</v>
       </c>
@@ -20310,8 +21729,12 @@
       <c r="M260" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N260" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>760</v>
       </c>
@@ -20350,6 +21773,10 @@
       </c>
       <c r="M261" t="s">
         <v>51</v>
+      </c>
+      <c r="N261" t="str">
+        <f>VLOOKUP(staff[[#This Row],[Employee type]],ET[],2,FALSE)</f>
+        <v>TE</v>
       </c>
     </row>
   </sheetData>
@@ -20362,23 +21789,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66D881-98C8-42C1-A95C-E8AA1245E44A}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="47" t="s">
+        <v>824</v>
+      </c>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>809</v>
       </c>
@@ -20386,8 +21821,14 @@
         <f>AVERAGE(staff[Salary])</f>
         <v>73861.325230769246</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>28</v>
       </c>
@@ -20397,10 +21838,10 @@
       <c r="D4" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>808</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="30" t="s">
         <v>780</v>
       </c>
@@ -20411,126 +21852,575 @@
         <v>811</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="28"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:B16">_xlfn.UNIQUE(staff[Department],FALSE)</f>
+        <v>Training</v>
+      </c>
+      <c r="C5">
+        <f>COUNTA(staff[Department],B5)</f>
+        <v>261</v>
+      </c>
+      <c r="D5" s="28">
+        <f>AVERAGEIF(staff[Department],B5,staff[Salary])</f>
+        <v>83883.965000000011</v>
+      </c>
+      <c r="E5" s="28">
+        <f>D5-$D$3</f>
+        <v>10022.639769230766</v>
+      </c>
+      <c r="F5" s="43">
+        <f>E5/$D$3</f>
+        <v>0.1356953688268718</v>
+      </c>
+      <c r="G5" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B5)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="H5" s="44" cm="1">
+        <f t="array" ref="H5">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B5))</f>
+        <v>89569.44</v>
+      </c>
+      <c r="I5" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B5)/COUNTIF(staff[Department],B5)</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B5)</f>
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="C6">
+        <f>COUNTA(staff[Department],B6)</f>
+        <v>261</v>
+      </c>
+      <c r="D6" s="28">
+        <f>AVERAGEIF(staff[Department],B6,staff[Salary])</f>
+        <v>79781.805769230778</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" ref="E6:E16" si="0">D6-$D$3</f>
+        <v>5920.480538461532</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" ref="F6:F16" si="1">E6/$D$3</f>
+        <v>8.0156706097051861E-2</v>
+      </c>
+      <c r="G6" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B6)</f>
+        <v>110042.37</v>
+      </c>
+      <c r="H6" s="44" cm="1">
+        <f t="array" ref="H6">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B6))</f>
+        <v>80695.740000000005</v>
+      </c>
+      <c r="I6" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B6)/COUNTIF(staff[Department],B6)</f>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B6)</f>
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="C7">
+        <f>COUNTA(staff[Department],B7)</f>
+        <v>261</v>
+      </c>
+      <c r="D7" s="28">
+        <f>AVERAGEIF(staff[Department],B7,staff[Salary])</f>
+        <v>81976.441923076913</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>8115.1166923076671</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="1"/>
+        <v>0.10986963295003352</v>
+      </c>
+      <c r="G7" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B7)</f>
+        <v>120000</v>
+      </c>
+      <c r="H7" s="44" cm="1">
+        <f t="array" ref="H7">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B7))</f>
+        <v>85332.304999999993</v>
+      </c>
+      <c r="I7" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B7)/COUNTIF(staff[Department],B7)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B7)</f>
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="C8">
+        <f>COUNTA(staff[Department],B8)</f>
+        <v>261</v>
+      </c>
+      <c r="D8" s="28">
+        <f>AVERAGEIF(staff[Department],B8,staff[Salary])</f>
+        <v>64441.299999999996</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>-9420.0252307692499</v>
+      </c>
+      <c r="F8" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.1275366397954236</v>
+      </c>
+      <c r="G8" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B8)</f>
+        <v>104903.79</v>
+      </c>
+      <c r="H8" s="44" cm="1">
+        <f t="array" ref="H8">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B8))</f>
+        <v>66961.489999999991</v>
+      </c>
+      <c r="I8" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B8)/COUNTIF(staff[Department],B8)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B8)</f>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="C9">
+        <f>COUNTA(staff[Department],B9)</f>
+        <v>261</v>
+      </c>
+      <c r="D9" s="28">
+        <f>AVERAGEIF(staff[Department],B9,staff[Salary])</f>
+        <v>67242.51761904762</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>-6618.807611721626</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.9611276145426577E-2</v>
+      </c>
+      <c r="G9" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B9)</f>
+        <v>113747.56</v>
+      </c>
+      <c r="H9" s="44" cm="1">
+        <f t="array" ref="H9">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B9))</f>
+        <v>66572.58</v>
+      </c>
+      <c r="I9" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B9)/COUNTIF(staff[Department],B9)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B9)</f>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="C10">
+        <f>COUNTA(staff[Department],B10)</f>
+        <v>261</v>
+      </c>
+      <c r="D10" s="28">
+        <f>AVERAGEIF(staff[Department],B10,staff[Salary])</f>
+        <v>69806.945769230777</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>-4054.3794615384686</v>
+      </c>
+      <c r="F10" s="43">
+        <f t="shared" si="1"/>
+        <v>-5.4891777921275232E-2</v>
+      </c>
+      <c r="G10" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B10)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="H10" s="44" cm="1">
+        <f t="array" ref="H10">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B10))</f>
+        <v>69025.614999999991</v>
+      </c>
+      <c r="I10" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B10)/COUNTIF(staff[Department],B10)</f>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B10)</f>
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B10)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="C11">
+        <f>COUNTA(staff[Department],B11)</f>
+        <v>261</v>
+      </c>
+      <c r="D11" s="28">
+        <f>AVERAGEIF(staff[Department],B11,staff[Salary])</f>
+        <v>73109.377727272746</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>-751.94750349649985</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="1"/>
+        <v>-1.0180530895528159E-2</v>
+      </c>
+      <c r="G11" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B11)</f>
+        <v>103494.94</v>
+      </c>
+      <c r="H11" s="44" cm="1">
+        <f t="array" ref="H11">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B11))</f>
+        <v>73182.794999999998</v>
+      </c>
+      <c r="I11" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B11)/COUNTIF(staff[Department],B11)</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B11)</f>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="C12">
+        <f>COUNTA(staff[Department],B12)</f>
+        <v>261</v>
+      </c>
+      <c r="D12" s="28">
+        <f>AVERAGEIF(staff[Department],B12,staff[Salary])</f>
+        <v>66910.765555555554</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>-6950.5596752136917</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="1"/>
+        <v>-9.4102829234347651E-2</v>
+      </c>
+      <c r="G12" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B12)</f>
+        <v>99683.67</v>
+      </c>
+      <c r="H12" s="44" cm="1">
+        <f t="array" ref="H12">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B12))</f>
+        <v>65995.375</v>
+      </c>
+      <c r="I12" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B12)/COUNTIF(staff[Department],B12)</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B12)</f>
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <v>Services</v>
+      </c>
+      <c r="C13">
+        <f>COUNTA(staff[Department],B13)</f>
+        <v>261</v>
+      </c>
+      <c r="D13" s="28">
+        <f>AVERAGEIF(staff[Department],B13,staff[Salary])</f>
+        <v>74673.974761904756</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>812.64953113551019</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" si="1"/>
+        <v>1.1002368676658615E-2</v>
+      </c>
+      <c r="G13" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B13)</f>
+        <v>120000</v>
+      </c>
+      <c r="H13" s="44" cm="1">
+        <f t="array" ref="H13">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B13))</f>
+        <v>77096.05</v>
+      </c>
+      <c r="I13" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B13)/COUNTIF(staff[Department],B13)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B13)</f>
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="C14">
+        <f>COUNTA(staff[Department],B14)</f>
+        <v>261</v>
+      </c>
+      <c r="D14" s="28">
+        <f>AVERAGEIF(staff[Department],B14,staff[Salary])</f>
+        <v>75179.064482758593</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>1317.7392519893474</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="1"/>
+        <v>1.784072040235208E-2</v>
+      </c>
+      <c r="G14" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B14)</f>
+        <v>115191.38</v>
+      </c>
+      <c r="H14" s="44" cm="1">
+        <f t="array" ref="H14">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B14))</f>
+        <v>72502.61</v>
+      </c>
+      <c r="I14" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B14)/COUNTIF(staff[Department],B14)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B14)</f>
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <v>Support</v>
+      </c>
+      <c r="C15">
+        <f>COUNTA(staff[Department],B15)</f>
+        <v>261</v>
+      </c>
+      <c r="D15" s="28">
+        <f>AVERAGEIF(staff[Department],B15,staff[Salary])</f>
+        <v>66432.455882352937</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>-7428.8693484163086</v>
+      </c>
+      <c r="F15" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.10057860897033541</v>
+      </c>
+      <c r="G15" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B15)</f>
+        <v>104802.63</v>
+      </c>
+      <c r="H15" s="44" cm="1">
+        <f t="array" ref="H15">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B15))</f>
+        <v>61214.26</v>
+      </c>
+      <c r="I15" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B15)/COUNTIF(staff[Department],B15)</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B15)</f>
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="C16">
+        <f>COUNTA(staff[Department],B16)</f>
+        <v>261</v>
+      </c>
+      <c r="D16" s="28">
+        <f>AVERAGEIF(staff[Department],B16,staff[Salary])</f>
+        <v>71897.095555555556</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>-1964.2296752136899</v>
+      </c>
+      <c r="F16" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.6593479998859113E-2</v>
+      </c>
+      <c r="G16" s="28">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B16)</f>
+        <v>102129.37</v>
+      </c>
+      <c r="H16" s="44" cm="1">
+        <f t="array" ref="H16">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B16))</f>
+        <v>79396.654999999999</v>
+      </c>
+      <c r="I16" s="48">
+        <f>COUNTIFS(staff[Gender],"Female",staff[Department],B16)/COUNTIF(staff[Department],B16)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIFS(staff[Gender],$K$3,staff[Department],B16)</f>
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f>COUNTIFS(staff[Gender],$L$3,staff[Department],$B16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:E16">
-    <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
+  <conditionalFormatting sqref="F5:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C8DBF90-99D3-4B93-8356-CF45AEA35F87}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C8DBF90-99D3-4B93-8356-CF45AEA35F87}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5:E16</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261174D-7B41-4677-B7AD-2966004EA369}">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="30" t="s">
@@ -20546,6 +22436,2867 @@
       </c>
       <c r="D3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:D263">_xlfn._xlws.FILTER(staff[[Emp ID]:[Last Name]],MONTH(staff[Start Date]=3))</f>
+        <v>PR00007</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Collier</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <v>PR00095</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Devrat</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Damarsingh</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <v>PR00147</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Ricardot</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <v>PR00246</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Husein</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Augar</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <v>PR00419</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Billi</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Fellgate</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <v>PR00576</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Lalitchandra</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Vadali</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Iles</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <v>PR00770</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Beryl</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Burnsyde</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>PR00882</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Jill</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Shipsey</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <v>PR00893</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Vasavi</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Veeravasarapu</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>PR00916</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Inger</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Chapelhow</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>PR01055</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Devasree</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Fullara</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>PR01159</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Mollie</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Hanway</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>PR01211</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Enoch</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Dowrey</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>PR01269</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Eleonore</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Airdrie</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>PR01306</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Patti</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Dradey</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>PR01346</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Adolph</v>
+      </c>
+      <c r="D22" t="str">
+        <v>McNalley</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>PR01383</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Addi</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Studdeard</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>PR01476</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Jaishree</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Atasi</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>PR01662</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Genevra</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <v>PR01943</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Rameshwari</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Chikodi</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <v>PR01956</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Jamesy</v>
+      </c>
+      <c r="D27" t="str">
+        <v>O'Ferris</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <v>PR01956</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Jamesy</v>
+      </c>
+      <c r="D28" t="str">
+        <v>O'Ferris</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <v>PR02010</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Nishita</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <v>PR02016</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Iris</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Wagg</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <v>PR02113</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Beverie</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Moffet</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <v>PR02140</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Anjushri</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Chandiramani</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Sankar</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <v>PR02275</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Lamming</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <v>PR02288</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Althea</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Bronger</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <v>PR02321</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Evanne</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Sheryn</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <v>PR02436</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Marmaduke</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Worssam</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <v>PR02603</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Dinanath</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Simhambhatla</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <v>PR02782</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Isaak</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Rawne</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <v>PR02957</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Vaughn</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Carvill</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <v>PR03034</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Sreenivasa</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Naik</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <v>PR03137</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Jagajeet</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Viraj</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <v>PR03158</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Danica</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Nayshe</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <v>PR03271</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Stan</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Tolliday</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <v>PR03445</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Myrle</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Prandoni</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <v>PR03532</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Pratigya</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Rema</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Sartaj</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Probal</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <v>PR03844</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Brose</v>
+      </c>
+      <c r="D49" t="str">
+        <v>MacCorkell</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="D50" t="str">
+        <v>MacKnockiter</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <v>PR03980</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Kath</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Bletsoe</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <v>PR04366</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Carry</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Loblie</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <v>PR04380</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <v>PR04446</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Sameer</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Shashank</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <v>PR04473</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Wyn</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Treadger</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <v>PR04601</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Yedukondalu</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Panditula</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
+        <v>PR04686</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Oona</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Donan</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <v>PR04851</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Rodina</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Drinan</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Demke</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <v>SQ00070</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Larissa</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Ingledow</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Ragunathan</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Dunbleton</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <v>SQ00187</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Rupak</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Mehra</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <v>SQ00286</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Ilesh</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Dasgupta</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <v>SQ00360</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Orlando</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Gorstidge</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <v>SQ00450</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Lamming</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Ofer</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <v>SQ00612</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Leena</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Bruckshaw</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <v>SQ00691</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Verla</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Timmis</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <v>SQ00841</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Bhuvan</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Pals</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Duran</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Appala</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Karuna</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Pashupathy</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <v>SQ00960</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Calvin</v>
+      </c>
+      <c r="D73" t="str">
+        <v>O'Carroll</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <v>SQ01026</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Anumati</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Shyamari</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <v>SQ01177</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Nazeer</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Basha</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="str">
+        <v>SQ01283</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Barr</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Faughny</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="str">
+        <v>SQ01395</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Dennison</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Crosswaite</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <v>SQ01402</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Sahaj</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Jonnalagadda</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="str">
+        <v>SQ01519</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Caron</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Kolakovic</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <v>SQ01620</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Westbrook</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Brandino</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
+        <v>SQ01637</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Joaquin</v>
+      </c>
+      <c r="D81" t="str">
+        <v>McVitty</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <v>SQ01697</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Makshi</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Vinutha</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="str">
+        <v>SQ01730</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Austine</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Littlewood</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
+        <v>SQ01829</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Mabel</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Orrow</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <v>SQ01854</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Jessica</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Callcott</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Vanmala</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Shriharsha</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Sahas</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Sanabhi</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Izzard</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Izzard</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Yitzhok</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="str">
+        <v>SQ02223</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Pippy</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Shepperd</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="str">
+        <v>SQ02246</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Matias</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Cormack</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="str">
+        <v>SQ02371</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Alida</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Welman</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="str">
+        <v>SQ02424</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Kevalkumar</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Solanki</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="str">
+        <v>SQ02465</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Bernie</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Gorges</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <v>SQ02525</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Mickie</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Dagwell</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="str">
+        <v>SQ02559</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="str">
+        <v>SQ02559</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <v>SQ02565</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Konstantin</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Timblett</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <v>SQ02582</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Kaishori</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Harathi</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Fealey</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="str">
+        <v>SQ02638</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Cara</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Havers</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="str">
+        <v>SQ02643</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Indu</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Varada</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Ranjana</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="str">
+        <v>SQ03024</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Inge</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Creer</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="str">
+        <v>SQ03024</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Inge</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Creer</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="str">
+        <v>SQ03112</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Kantimoy</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Pritish</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="str">
+        <v>SQ03116</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Syd</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Fearn</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="str">
+        <v>SQ03321</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Gradey</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Litton</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D110" t="str">
+        <v>McMurty</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D111" t="str">
+        <v>McMurty</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Scholling</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="str">
+        <v>SQ03476</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Ramalingam</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Kothapeta</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Legan</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="str">
+        <v>SQ03546</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Amlankusum</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Rajabhushan</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Artis</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="str">
+        <v>SQ03626</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Krishnakanta</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Vellanki</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="str">
+        <v>SQ03733</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Revkah</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Antonacci</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="str">
+        <v>SQ04437</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Hephzibah</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Summerell</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="str">
+        <v>SQ04488</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Ramnath</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Ravuri</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="str">
+        <v>SQ04598</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Pearla</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Beteriss</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="str">
+        <v>SQ04603</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Natalee</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Craiker</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Spraberry</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="str">
+        <v>SQ04613</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Sarojini</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Naueshwara</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="str">
+        <v>SQ04665</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Collin</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Jagson</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="str">
+        <v>SQ04960</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Shubhra</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Potla</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="str">
+        <v>TN00083</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Chandana</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Sannidhi</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="str">
+        <v>TN00182</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Camilla</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Castle</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Devsena</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Veluvalapalli</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Hemavati</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Muthiah</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="str">
+        <v>TN00227</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Raghuveer</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Yettugunna</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="str">
+        <v>TN00258</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Joyce</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Leyband</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="str">
+        <v>TN00328</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Jeannie</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Petracco</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="str">
+        <v>TN00464</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Gopal</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Venkata</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Blaksland</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="str">
+        <v>TN00698</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Barbara-anne</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Kenchington</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="str">
+        <v>TN00727</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Dulsea</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Folkes</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="str">
+        <v>TN00735</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Caresa</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Christer</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="str">
+        <v>TN00735</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Caresa</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Christer</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="str">
+        <v>TN00890</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Mayur</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Kousika</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="str">
+        <v>TN01028</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Alicea</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Pudsall</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="str">
+        <v>TN01210</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Alyosha</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Riquet</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Shattesh</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Utpat</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Sawini</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Chandan</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D145" t="str">
+        <v>McGarahan</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="str">
+        <v>TN01340</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Granny</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Spencelayh</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="str">
+        <v>TN01396</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Koral</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Gerriet</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="str">
+        <v>TN01566</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Fonzie</v>
+      </c>
+      <c r="D148" t="str">
+        <v>O'Shea</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Jickells</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Jickells</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="str">
+        <v>TN01632</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Katya</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Hundy</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="str">
+        <v>TN01701</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Yves</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Pawlik</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D153" t="str">
+        <v>McCritchie</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D154" t="str">
+        <v>McCritchie</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="str">
+        <v>TN01912</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Fred</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Dudeney</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="str">
+        <v>TN02204</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="str">
+        <v>TN02205</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Madhumati</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Gazala</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="str">
+        <v>TN02377</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Anjela</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Spancock</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="str">
+        <v>TN02397</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Mendel</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Gentsch</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="str">
+        <v>TN02496</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Ponnan</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Delhi</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="str">
+        <v>TN02570</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Grady</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Rochelle</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="str">
+        <v>TN02570</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Grady</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Rochelle</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Coggeshall</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Coggeshall</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="str">
+        <v>TN02727</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Wald</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Bountiff</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="str">
+        <v>TN02749</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Parasuramudu</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Jamakayala</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="str">
+        <v>TN02798</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Krittika</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Gaekwad</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="str">
+        <v>TN02883</v>
+      </c>
+      <c r="C168" t="str">
+        <v>John</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Joseph</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="str">
+        <v>TN02988</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Mahindra</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Sreedharan</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Jaipal</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Potanapudi</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Fullara</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Sushanti</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="str">
+        <v>TN03068</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Gumwant</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Veera</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="str">
+        <v>TN03097</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Bendite</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Bloan</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="str">
+        <v>TN03169</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Doe</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Clubley</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="str">
+        <v>TN03169</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Doe</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Clubley</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="str">
+        <v>TN03210</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Suman</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Katte</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="str">
+        <v>TN03331</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="str">
+        <v>TN03355</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Ruby</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Cracie</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="str">
+        <v>TN03416</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Seward</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Kubera</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Wolverson</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Wolverson</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Subbarao</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Malladi</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Vasu</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Nandin</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="str">
+        <v>TN04067</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Lea</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Chaplin</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="str">
+        <v>TN04101</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Marline</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Wahncke</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="str">
+        <v>TN04166</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Dowdle</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Label</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Ransbury</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="str">
+        <v>TN04265</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Rushil</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Kripa</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="str">
+        <v>TN04428</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Audritt</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="str">
+        <v>TN04428</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Audritt</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="str">
+        <v>TN04660</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Thedrick</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Bothwell</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Cuming</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="str">
+        <v>TN04775</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Hridaynath</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Tendulkar</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="str">
+        <v>TN04892</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Luca</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Wolstenholme</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="str">
+        <v>VT00194</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Violante</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Courtonne</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="str">
+        <v>VT00336</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Shevantilal</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Muppala</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="str">
+        <v>VT00476</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Adolph</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Hartin</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="str">
+        <v>VT00534</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Roselle</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Wandrach</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="str">
+        <v>VT00578</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Magnum</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Locksley</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Carrett</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Carrett</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="str">
+        <v>VT00687</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Godavari</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Veena</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="str">
+        <v>VT00740</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Chitrasen</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Laul</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="str">
+        <v>VT01092</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Tabby</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Astall</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="str">
+        <v>VT01101</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Adela</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Dowsett</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="str">
+        <v>VT01246</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Zach</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Polon</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="str">
+        <v>VT01249</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Brendan</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Edgeller</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" t="str">
+        <v>VT01323</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Mardav</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Ramaswami</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="str">
+        <v>VT01523</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Charmane</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Heistermann</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Dhruv</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Manjunath</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Kunja</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Prashanta</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Yu</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="str">
+        <v>VT01703</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Upendra</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Swati</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="str">
+        <v>VT01740</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Ginger</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Myott</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Linford</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Guillet</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Guillet</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="str">
+        <v>VT01996</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Hali</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Behnecke</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="str">
+        <v>VT02118</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Oorjit</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Nandanavanam</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="str">
+        <v>VT02260</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Rhiamon</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Mollison</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="str">
+        <v>VT02313</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Thekla</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Lynnett</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="str">
+        <v>VT02313</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Thekla</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Lynnett</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" t="str">
+        <v>VT02319</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Tarala</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Vishaal</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Jewis</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Jewis</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" t="str">
+        <v>VT02417</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Evangelina</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Lergan</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" t="str">
+        <v>VT02491</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Alexis</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Gotfrey</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" t="str">
+        <v>VT02532</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Adey</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Ryal</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" t="str">
+        <v>VT02539</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Devinne</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Tuny</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" t="str">
+        <v>VT02663</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Sravanthi</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Chalaki</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" t="str">
+        <v>VT02801</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Shellysheldon</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Mahady</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" t="str">
+        <v>VT03298</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Nonah</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Bissell</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" t="str">
+        <v>VT03307</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Tallie</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Chaikovski</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Bagg</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Bagg</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" t="str">
+        <v>VT03500</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Shiuli</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Sapna</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Thomassin</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Thomassin</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" t="str">
+        <v>VT03552</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Kamalakshi</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Mukundan</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" t="str">
+        <v>VT03701</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Narois</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Motiwala</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="str">
+        <v>VT03704</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Egor</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Minto</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="str">
+        <v>VT03771</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Marjie</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Bamford</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" t="str">
+        <v>VT03849</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Leonidas</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Cavaney</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="str">
+        <v>VT03988</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Venkat</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Kodi</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="str">
+        <v>VT03993</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Dulce</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Colbeck</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Rolf</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Rolf</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Lakshmi</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Ogale</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="str">
+        <v>VT04137</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Marissa</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Infante</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" t="str">
+        <v>VT04273</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Brad</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Gumb</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Kulbhushan</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Moorthy</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Lalit</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Kothari</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" t="str">
+        <v>VT04373</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Edi</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Hofton</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Biles</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" t="str">
+        <v>VT04467</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Amal</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Nimesh</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Chasmer</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" t="str">
+        <v>VT04627</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Yvette</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Bett</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Artin</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="str">
+        <v>VT04905</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Suchira</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Bhanupriya</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" t="str">
+        <v>VT04984</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Dell</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Molloy</v>
       </c>
     </row>
   </sheetData>
@@ -20555,30 +25306,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5242086-4C02-44DA-AFAA-906A5824F81D}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2" s="28">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.XLOOKUP($C$2,staff[Salary],staff[First Name]&amp;" "&amp; staff[Last Name],"NA",0)</f>
+        <v>Minerva Ricardot</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.XLOOKUP($C$2,staff[Salary],staff[Last Name],"NA",0)</f>
+        <v>Ricardot</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>802</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6:C7">_xlfn._xlws.FILTER(staff[First Name],staff[Salary]=C2)</f>
+        <v>Minerva</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <v>Mick</v>
       </c>
     </row>
   </sheetData>
@@ -20591,12 +25369,13 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -20605,41 +25384,61 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="36" t="s">
         <v>195</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>797</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="49" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="36" t="str">
+        <f>_xlfn.XLOOKUP(C$3,staff[Emp ID],staff[First Name],"Not Available",0)</f>
+        <v>Edd</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="49" t="s">
         <v>26</v>
       </c>
+      <c r="C6" s="36" t="str">
+        <f>_xlfn.XLOOKUP(C$3,staff[Emp ID],staff[Last Name],"Not Available",0)</f>
+        <v>MacKnockiter</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="36" t="str">
+        <f>_xlfn.XLOOKUP(C$3,staff[Emp ID],staff[Department],"Not Available",0)</f>
+        <v>Accounting</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="49" t="s">
         <v>29</v>
       </c>
+      <c r="C8" s="37">
+        <f>_xlfn.XLOOKUP(C$3,staff[Emp ID],staff[Salary],"Not Available",0)</f>
+        <v>119022.49</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -20649,13 +25448,17 @@
         <v>800</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="49" t="s">
         <v>798</v>
       </c>
-      <c r="C14" t="e">
-        <f>VLOOKUP(C12,staff[],1,0)</f>
-        <v>#N/A</v>
+      <c r="C14" s="36" t="str">
+        <f>_xlfn.XLOOKUP(C$12,staff[Last Name],staff[Emp ID],"NA",0)</f>
+        <v>PR00113</v>
       </c>
       <c r="E14" t="str">
         <f>_xlfn.XLOOKUP(C12,staff[Last Name],staff[Emp ID],0)</f>
@@ -20663,13 +25466,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="49" t="s">
         <v>28</v>
       </c>
+      <c r="C15" s="36" t="str">
+        <f>_xlfn.XLOOKUP(C$12,staff[Last Name],staff[Department],"NA",0)</f>
+        <v>Business Development</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="49" t="s">
         <v>29</v>
+      </c>
+      <c r="C16" s="37">
+        <f>_xlfn.XLOOKUP(C$12,staff[Last Name],staff[Salary],"NA",0)</f>
+        <v>80695.740000000005</v>
       </c>
     </row>
   </sheetData>
@@ -20679,10 +25490,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0948135B-AE34-401C-B471-F2924D1395CF}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20691,13 +25502,13 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="27" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>791</v>
       </c>
@@ -20705,49 +25516,137 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4:Q4">_xlfn._xlws.FILTER(staff[],staff[Emp ID]=B3)</f>
+        <v>PR00007</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Collier</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Female</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Training</v>
+      </c>
+      <c r="I4">
+        <v>96135.75</v>
+      </c>
+      <c r="J4" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="K4">
+        <v>44025</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="O4">
+        <v>3.9424657534246577</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Part time</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>VLOOKUP(B3,staff[],2,FALSE)</f>
+        <v>Torrance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>VLOOKUP(B3,staff[],3,FALSE)</f>
+        <v>Collier</v>
+      </c>
+      <c r="D6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f>VLOOKUP(B3,staff[],5,FALSE)</f>
+        <v>Training</v>
+      </c>
+      <c r="D7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <f>VLOOKUP(B3,staff[],6,FALSE)</f>
+        <v>96135.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>794</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>MATCH(B14,staff[Last Name],0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>795</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">INDEX(staff[Emp ID],B15)</f>
+        <v>PR03804</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.XLOOKUP(B14,staff[Last Name],staff[Emp ID],"NA",0)</f>
+        <v>PR03804</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(B14,staff[[Last Name]:[Department]],3,FALSE)</f>
+        <v>Legal</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>796</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="28">
+        <f>VLOOKUP(B14,staff[[Last Name]:[Salary]],4,FALSE)</f>
+        <v>66572.58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20755,11 +25654,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC001B-09DC-4F40-BD4E-09C8E6A8C486}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C915AF-DB49-49AB-96AA-5836E141FFAA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20796,8 +25749,8 @@
         <v>Training</v>
       </c>
       <c r="C4">
-        <f>COUNTA(staff[Department],A4)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A4)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -20805,8 +25758,8 @@
         <v>Business Development</v>
       </c>
       <c r="C5">
-        <f>COUNTA(staff[Department],A5)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A5)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20814,8 +25767,8 @@
         <v>Engineering</v>
       </c>
       <c r="C6">
-        <f>COUNTA(staff[Department],A6)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A6)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -20823,8 +25776,8 @@
         <v>Marketing</v>
       </c>
       <c r="C7">
-        <f>COUNTA(staff[Department],A7)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A7)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -20832,8 +25785,8 @@
         <v>Legal</v>
       </c>
       <c r="C8">
-        <f>COUNTA(staff[Department],A8)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A8)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -20841,8 +25794,8 @@
         <v>Accounting</v>
       </c>
       <c r="C9">
-        <f>COUNTA(staff[Department],A9)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A9)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -20850,8 +25803,8 @@
         <v>Human Resources</v>
       </c>
       <c r="C10">
-        <f>COUNTA(staff[Department],A10)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A10)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -20859,8 +25812,8 @@
         <v>Research and Development</v>
       </c>
       <c r="C11">
-        <f>COUNTA(staff[Department],A11)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A11)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -20868,8 +25821,8 @@
         <v>Services</v>
       </c>
       <c r="C12">
-        <f>COUNTA(staff[Department],A12)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A12)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -20877,8 +25830,8 @@
         <v>Product Management</v>
       </c>
       <c r="C13">
-        <f>COUNTA(staff[Department],A13)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A13)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -20886,8 +25839,8 @@
         <v>Support</v>
       </c>
       <c r="C14">
-        <f>COUNTA(staff[Department],A14)</f>
-        <v>261</v>
+        <f>COUNTIF(staff[Department],A14)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -20895,168 +25848,8 @@
         <v>Sales</v>
       </c>
       <c r="C15">
-        <f>COUNTA(staff[Department],A15)</f>
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4836C1CA-B3F8-4E0E-8169-5A1F68AD8466}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>779</v>
-      </c>
-      <c r="B4" s="37">
-        <f>MIN(staff[Salary])</f>
-        <v>28160.79</v>
-      </c>
-      <c r="C4" s="37">
-        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],C3)</f>
-        <v>28160.79</v>
-      </c>
-      <c r="D4" s="37">
-        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],D3)</f>
-        <v>28305.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>780</v>
-      </c>
-      <c r="B5" s="37">
-        <f>MAX(staff[Salary])</f>
-        <v>120000</v>
-      </c>
-      <c r="C5" s="37">
-        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],C3)</f>
-        <v>120000</v>
-      </c>
-      <c r="D5" s="37">
-        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],D3)</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>781</v>
-      </c>
-      <c r="B6" s="37">
-        <f>LARGE(staff[Salary],1)</f>
-        <v>120000</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
-        <f>LARGE(staff[Salary],2)</f>
-        <v>120000</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
-        <f>LARGE(staff[Salary],3)</f>
-        <v>119022.49</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
-        <f>LARGE(staff[Salary],4)</f>
-        <v>118976.16</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
-        <f>LARGE(staff[Salary],5)</f>
-        <v>118442.54</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
-        <f>LARGE(staff[Salary],6)</f>
-        <v>116767.63</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="37">
-        <f>LARGE(staff[Salary],7)</f>
-        <v>116767.63</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>783</v>
-      </c>
-      <c r="B15" s="28" cm="1">
-        <f t="array" ref="B15:B19">_xlfn.TAKE(_xlfn._xlws.SORT(staff[Salary],,1),5)</f>
-        <v>28160.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
-        <v>28305.08</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
-        <v>28329.77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
-        <v>28481.16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
-        <v>28481.16</v>
+        <f>COUNTIF(staff[Department],A15)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\Github1\Data-Analytics-Portfolio-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258FB12A-0B73-43B9-881F-1F86A2C5B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD3F8F-47A7-42C4-B369-348700EDA9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="0" windowWidth="14430" windowHeight="15585" tabRatio="774" activeTab="8" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
+    <workbookView xWindow="12855" yWindow="60" windowWidth="14730" windowHeight="15420" tabRatio="774" activeTab="9" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2848,9 +2848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2862,11 +2859,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4884,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4836C1CA-B3F8-4E0E-8169-5A1F68AD8466}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9628,7 +9628,7 @@
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21808,10 +21808,10 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="49" t="s">
         <v>824</v>
       </c>
-      <c r="L2" s="47"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -21838,10 +21838,10 @@
       <c r="D4" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="30" t="s">
         <v>780</v>
       </c>
@@ -21869,7 +21869,7 @@
         <f>D5-$D$3</f>
         <v>10022.639769230766</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f>E5/$D$3</f>
         <v>0.1356953688268718</v>
       </c>
@@ -21877,11 +21877,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B5)</f>
         <v>116767.63</v>
       </c>
-      <c r="H5" s="44" cm="1">
+      <c r="H5" s="43" cm="1">
         <f t="array" ref="H5">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B5))</f>
         <v>89569.44</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B5)/COUNTIF(staff[Department],B5)</f>
         <v>0.70833333333333337</v>
       </c>
@@ -21910,7 +21910,7 @@
         <f t="shared" ref="E6:E16" si="0">D6-$D$3</f>
         <v>5920.480538461532</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <f t="shared" ref="F6:F16" si="1">E6/$D$3</f>
         <v>8.0156706097051861E-2</v>
       </c>
@@ -21918,11 +21918,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B6)</f>
         <v>110042.37</v>
       </c>
-      <c r="H6" s="44" cm="1">
+      <c r="H6" s="43" cm="1">
         <f t="array" ref="H6">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B6))</f>
         <v>80695.740000000005</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B6)/COUNTIF(staff[Department],B6)</f>
         <v>0.42307692307692307</v>
       </c>
@@ -21951,7 +21951,7 @@
         <f t="shared" si="0"/>
         <v>8115.1166923076671</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <f t="shared" si="1"/>
         <v>0.10986963295003352</v>
       </c>
@@ -21959,11 +21959,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B7)</f>
         <v>120000</v>
       </c>
-      <c r="H7" s="44" cm="1">
+      <c r="H7" s="43" cm="1">
         <f t="array" ref="H7">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B7))</f>
         <v>85332.304999999993</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B7)/COUNTIF(staff[Department],B7)</f>
         <v>0.38461538461538464</v>
       </c>
@@ -21992,7 +21992,7 @@
         <f t="shared" si="0"/>
         <v>-9420.0252307692499</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f t="shared" si="1"/>
         <v>-0.1275366397954236</v>
       </c>
@@ -22000,11 +22000,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B8)</f>
         <v>104903.79</v>
       </c>
-      <c r="H8" s="44" cm="1">
+      <c r="H8" s="43" cm="1">
         <f t="array" ref="H8">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B8))</f>
         <v>66961.489999999991</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B8)/COUNTIF(staff[Department],B8)</f>
         <v>0.41666666666666669</v>
       </c>
@@ -22033,7 +22033,7 @@
         <f t="shared" si="0"/>
         <v>-6618.807611721626</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f t="shared" si="1"/>
         <v>-8.9611276145426577E-2</v>
       </c>
@@ -22041,11 +22041,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B9)</f>
         <v>113747.56</v>
       </c>
-      <c r="H9" s="44" cm="1">
+      <c r="H9" s="43" cm="1">
         <f t="array" ref="H9">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B9))</f>
         <v>66572.58</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B9)/COUNTIF(staff[Department],B9)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -22074,7 +22074,7 @@
         <f t="shared" si="0"/>
         <v>-4054.3794615384686</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <f t="shared" si="1"/>
         <v>-5.4891777921275232E-2</v>
       </c>
@@ -22082,11 +22082,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B10)</f>
         <v>119022.49</v>
       </c>
-      <c r="H10" s="44" cm="1">
+      <c r="H10" s="43" cm="1">
         <f t="array" ref="H10">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B10))</f>
         <v>69025.614999999991</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B10)/COUNTIF(staff[Department],B10)</f>
         <v>0.34615384615384615</v>
       </c>
@@ -22115,7 +22115,7 @@
         <f t="shared" si="0"/>
         <v>-751.94750349649985</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <f t="shared" si="1"/>
         <v>-1.0180530895528159E-2</v>
       </c>
@@ -22123,11 +22123,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B11)</f>
         <v>103494.94</v>
       </c>
-      <c r="H11" s="44" cm="1">
+      <c r="H11" s="43" cm="1">
         <f t="array" ref="H11">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B11))</f>
         <v>73182.794999999998</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B11)/COUNTIF(staff[Department],B11)</f>
         <v>0.31818181818181818</v>
       </c>
@@ -22156,7 +22156,7 @@
         <f t="shared" si="0"/>
         <v>-6950.5596752136917</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <f t="shared" si="1"/>
         <v>-9.4102829234347651E-2</v>
       </c>
@@ -22164,11 +22164,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B12)</f>
         <v>99683.67</v>
       </c>
-      <c r="H12" s="44" cm="1">
+      <c r="H12" s="43" cm="1">
         <f t="array" ref="H12">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B12))</f>
         <v>65995.375</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B12)/COUNTIF(staff[Department],B12)</f>
         <v>0.61111111111111116</v>
       </c>
@@ -22197,7 +22197,7 @@
         <f t="shared" si="0"/>
         <v>812.64953113551019</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>1.1002368676658615E-2</v>
       </c>
@@ -22205,11 +22205,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B13)</f>
         <v>120000</v>
       </c>
-      <c r="H13" s="44" cm="1">
+      <c r="H13" s="43" cm="1">
         <f t="array" ref="H13">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B13))</f>
         <v>77096.05</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B13)/COUNTIF(staff[Department],B13)</f>
         <v>0.61904761904761907</v>
       </c>
@@ -22238,7 +22238,7 @@
         <f t="shared" si="0"/>
         <v>1317.7392519893474</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <f t="shared" si="1"/>
         <v>1.784072040235208E-2</v>
       </c>
@@ -22246,11 +22246,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B14)</f>
         <v>115191.38</v>
       </c>
-      <c r="H14" s="44" cm="1">
+      <c r="H14" s="43" cm="1">
         <f t="array" ref="H14">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B14))</f>
         <v>72502.61</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B14)/COUNTIF(staff[Department],B14)</f>
         <v>0.58620689655172409</v>
       </c>
@@ -22279,7 +22279,7 @@
         <f t="shared" si="0"/>
         <v>-7428.8693484163086</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <f t="shared" si="1"/>
         <v>-0.10057860897033541</v>
       </c>
@@ -22287,11 +22287,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B15)</f>
         <v>104802.63</v>
       </c>
-      <c r="H15" s="44" cm="1">
+      <c r="H15" s="43" cm="1">
         <f t="array" ref="H15">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B15))</f>
         <v>61214.26</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B15)/COUNTIF(staff[Department],B15)</f>
         <v>0.47058823529411764</v>
       </c>
@@ -22320,7 +22320,7 @@
         <f t="shared" si="0"/>
         <v>-1964.2296752136899</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <f t="shared" si="1"/>
         <v>-2.6593479998859113E-2</v>
       </c>
@@ -22328,11 +22328,11 @@
         <f>_xlfn.MAXIFS(staff[Salary],staff[Department],B16)</f>
         <v>102129.37</v>
       </c>
-      <c r="H16" s="44" cm="1">
+      <c r="H16" s="43" cm="1">
         <f t="array" ref="H16">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B16))</f>
         <v>79396.654999999999</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <f>COUNTIFS(staff[Gender],"Female",staff[Department],B16)/COUNTIF(staff[Department],B16)</f>
         <v>0.55555555555555558</v>
       </c>
@@ -22346,39 +22346,39 @@
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22386,6 +22386,13 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22395,13 +22402,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25384,7 +25384,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>795</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -25399,7 +25399,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="36" t="str">
@@ -25408,7 +25408,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="36" t="str">
@@ -25417,7 +25417,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="36" t="str">
@@ -25426,7 +25426,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="37">
@@ -25435,7 +25435,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>793</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -25453,7 +25453,7 @@
       <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>798</v>
       </c>
       <c r="C14" s="36" t="str">
@@ -25466,7 +25466,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="36" t="str">
@@ -25475,7 +25475,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="37">
@@ -25598,7 +25598,7 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <f>VLOOKUP(B3,staff[],6,FALSE)</f>
         <v>96135.75</v>
       </c>
@@ -25711,7 +25711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C915AF-DB49-49AB-96AA-5836E141FFAA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
